--- a/LSB/TIBAYAN, ANA MALEN RAMOS.xlsx
+++ b/LSB/TIBAYAN, ANA MALEN RAMOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\LSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\LSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>6/29-30/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/26-28/2023</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1049,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1092,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1156,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1216,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1282,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1345,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1443,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1502,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1567,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1610,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1685,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1871,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1937,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1995,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2061,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2117,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2192,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2235,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2301,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2357,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2455,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2518,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2967,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,8 +3280,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="41">
+        <v>45223</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
@@ -3286,8 +3296,12 @@
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="12">
+        <v>3</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
